--- a/khusat_DB/job_db.xlsx
+++ b/khusat_DB/job_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\khusat_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD545BB-1B48-486F-87AB-7643C126803E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095BD01C-6EE4-4ABE-A453-47E061524F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="4365" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="5490" yWindow="4710" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
-  <si>
-    <t>보직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>보병</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반행정병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>군사경찰(헌병)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,11 +278,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">조리병, </t>
+    <t>중분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포병, 방공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보, 정보통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화생방, 군사경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보병, 공병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병기, 수송, 기갑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반행정병, 조리병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사, 군종, 의료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +397,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -375,17 +423,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF436FBA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC8C8C8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -397,14 +456,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -418,6 +474,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,193 +799,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
+    <row r="16" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" tooltip="K-9 자주곡사포" display="https://namu.wiki/w/K-9 %EC%9E%90%EC%A3%BC%EA%B3%A1%EC%82%AC%ED%8F%AC" xr:uid="{83EEE7C4-C6AD-47CB-88EC-347A40C41276}"/>
+    <hyperlink ref="F16" r:id="rId1" tooltip="(전문)간호상세보기로 이동" display="javascript:f_gunDataView('412.101','1','1');" xr:uid="{5969192D-9333-47BB-B1B9-90F23B78BC14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/khusat_DB/job_db.xlsx
+++ b/khusat_DB/job_db.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\khusat_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095BD01C-6EE4-4ABE-A453-47E061524F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF67CAA-1FAC-7C42-A783-CA0E5CDB946E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="4710" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" activeTab="1" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>보병</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>의무병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,7 +319,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인사, 군종, 의료</t>
+    <t>인사, 군종, 의무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,17 +822,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
@@ -824,7 +845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>31</v>
@@ -839,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -853,7 +874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -867,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -881,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="C7" t="s">
         <v>32</v>
       </c>
@@ -895,9 +916,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -909,7 +930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="D9">
         <v>1</v>
       </c>
@@ -920,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="D10">
         <v>1</v>
       </c>
@@ -931,7 +952,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -942,7 +966,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -953,7 +980,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -964,15 +994,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" thickBot="1">
       <c r="E15" t="s">
         <v>22</v>
       </c>
@@ -980,27 +1013,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="20" thickTop="1" thickBot="1">
       <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:6" ht="19" thickTop="1" thickBot="1">
       <c r="F17" s="8"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25" s="5"/>
     </row>
   </sheetData>
@@ -1011,4 +1044,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D75370-8283-1344-A96D-A7B442DCC3BE}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/khusat_DB/job_db.xlsx
+++ b/khusat_DB/job_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF67CAA-1FAC-7C42-A783-CA0E5CDB946E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D7EF3-10B5-1C46-8A55-77BD70D01065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" activeTab="1" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,9 +820,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:E31"/>
     </sheetView>
   </sheetViews>
@@ -1024,17 +1024,74 @@
     <row r="17" spans="2:6" ht="19" thickTop="1" thickBot="1">
       <c r="F17" s="8"/>
     </row>
+    <row r="19" spans="2:6">
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3"/>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2"/>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="4"/>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1048,80 +1105,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D75370-8283-1344-A96D-A7B442DCC3BE}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/khusat_DB/job_db.xlsx
+++ b/khusat_DB/job_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D7EF3-10B5-1C46-8A55-77BD70D01065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B730FAD-0A52-5044-AD2B-4C8E579D07CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>보병</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,13 +345,229 @@
   <si>
     <t>보급</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보병, 기갑, 포병, 방공, 화생방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포병, 방공, 공병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기갑, 보급, 수송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보통신, 인사, 헌병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보, 정보통신, 화생방, 보급, 의무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보병, 기갑, 수송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기갑, 포병, 방공, 정보, 공병, 정보통신, 화생방, 보급, 인사, 헌병, 의무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소총수, 60mm 박격포병, 81mm 박격포병</t>
+  </si>
+  <si>
+    <t>전차병, 조종수</t>
+  </si>
+  <si>
+    <t> K-9 자주곡사포병,  155mm 견인포병,  105mm 견인포병</t>
+  </si>
+  <si>
+    <r>
+      <t>발칸포운용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오리콘포운용, 휴대용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도무기운용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비</t>
+    </r>
+  </si>
+  <si>
+    <t>어학병, 정보병, 카투사</t>
+  </si>
+  <si>
+    <t>전투공병, 시설공병</t>
+  </si>
+  <si>
+    <r>
+      <t>통신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비, 레이더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비</t>
+    </r>
+  </si>
+  <si>
+    <t> 화생방제독병, 화생방탐측병</t>
+  </si>
+  <si>
+    <t>일반물자보급, 유류관리, 조리병</t>
+  </si>
+  <si>
+    <t>견인차량(트레일러) 운전, 운전병, 차량 부대정비</t>
+  </si>
+  <si>
+    <t>일반행정병</t>
+  </si>
+  <si>
+    <t>군사경찰, 사이버수사병</t>
+  </si>
+  <si>
+    <t>의무보급, 의무벼병</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +650,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,6 +740,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,13 +1065,14 @@
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E31"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -956,6 +1199,9 @@
       <c r="B11" t="s">
         <v>37</v>
       </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -970,6 +1216,9 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -984,6 +1233,9 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -998,6 +1250,9 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
@@ -1006,6 +1261,12 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="18" thickBot="1">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
@@ -1022,16 +1283,36 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="19" thickTop="1" thickBot="1">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="E19" t="s">
         <v>0</v>
       </c>
+      <c r="F19" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="E20" t="s">
         <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -1039,22 +1320,34 @@
       <c r="E21" t="s">
         <v>2</v>
       </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2"/>
       <c r="E22" t="s">
         <v>3</v>
       </c>
+      <c r="F22" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="4"/>
       <c r="E23" t="s">
         <v>4</v>
       </c>
+      <c r="F23" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="E24" t="s">
         <v>5</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -1062,35 +1355,56 @@
       <c r="E25" t="s">
         <v>6</v>
       </c>
+      <c r="F25" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="E26" t="s">
         <v>7</v>
       </c>
+      <c r="F26" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="E27" t="s">
         <v>41</v>
       </c>
+      <c r="F27" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="E28" t="s">
         <v>9</v>
       </c>
+      <c r="F28" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
       <c r="E29" t="s">
         <v>20</v>
       </c>
+      <c r="F29" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="2:6">
       <c r="E30" t="s">
         <v>40</v>
       </c>
+      <c r="F30" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="2:6">
       <c r="E31" t="s">
         <v>36</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/khusat_DB/job_db.xlsx
+++ b/khusat_DB/job_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF5289-D266-B046-A6A6-970B1C1D57A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA72441-8A92-6441-BA2B-508C09F4F022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>군종병</t>
   </si>
@@ -85,13 +85,589 @@
     <t>전차병</t>
   </si>
   <si>
-    <t>조종수</t>
-  </si>
-  <si>
     <t>포병</t>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">105mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견인포병</t>
+    </r>
+  </si>
+  <si>
+    <t>방공</t>
+  </si>
+  <si>
+    <t>발칸포운용병</t>
+  </si>
+  <si>
+    <t>오리콘포운용병</t>
+  </si>
+  <si>
+    <t>정보</t>
+  </si>
+  <si>
+    <t>정보병</t>
+  </si>
+  <si>
+    <t>암호병</t>
+  </si>
+  <si>
+    <t>공병</t>
+  </si>
+  <si>
+    <t>전투공병</t>
+  </si>
+  <si>
+    <t>시설공병</t>
+  </si>
+  <si>
+    <t>정보통신</t>
+  </si>
+  <si>
+    <r>
+      <t>통신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>레이더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비</t>
+    </r>
+  </si>
+  <si>
+    <t>화생방</t>
+  </si>
+  <si>
+    <r>
+      <t>화생방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제독병</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>화생방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐측병</t>
+    </r>
+  </si>
+  <si>
+    <t>보급</t>
+  </si>
+  <si>
+    <t>일반물자보급병</t>
+  </si>
+  <si>
+    <t>유류관리병</t>
+  </si>
+  <si>
+    <t>조리병</t>
+  </si>
+  <si>
+    <t>수송</t>
+  </si>
+  <si>
+    <r>
+      <t>트레일러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운전병</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>차량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정비병</t>
+    </r>
+  </si>
+  <si>
+    <t>인사</t>
+  </si>
+  <si>
+    <t>헌병</t>
+  </si>
+  <si>
+    <t>사이버수사병</t>
+  </si>
+  <si>
+    <t>의무</t>
+  </si>
+  <si>
+    <t>의무보급병</t>
+  </si>
+  <si>
+    <t>의무병</t>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소총으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무장하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전문적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다루는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>군인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확률로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최전방이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60mm 박격포를 운용하는 보직이다. 빡세다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81㎜ 박격포를 운용하는 보직이다. 빡세다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전차승무원으로서 전차를 조종하고, 전차포 사격을 실시한다. 빡세다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-9자주포를 운전하며 사용자 정비를 실시한다. 힘들다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105mm견인포 운용 및 부대정비 업무 수행한다. 무겁다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발칸포 운용 및 사격을 위한 제반 업무를 수행한다. 훈련만 아니면 괜찮은편.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리콘포 운용 및 사격을 위한 제반 업무를 수행한다. 훈련만 아니면 괜찮은편.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대용 유도무기 발사준비 및 사격을 위한 제반 업무를 수행한다. 훈련만 아니면 괜찮은편.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보호병은 육군본부, 군단급, 전방의 일부사단에서 컴퓨터 정보보호관련 임무를 수행한다. 개꿀.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">군 통신장비 중 암호장비의 운용과 정비를 맡는다.
+보직 자체는 꽤 어렵지만 여건은 괜찮은편.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계가 건설한줄 알았던 철제 시설들을 사람의 힘으로만 설치한다. 큰일났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병참지대의 각종 시설물을 건설하고 영선업무를 수행한다. 힘들지만 의외로 재밌다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야전선, 광/동 케이블 설치 접속 및 보수한다. 부대 내의 각종 건물과 산을 오가는 일이 많다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해안 레이더기지 장비 정비 및 운용, 표적포착 분석, 확인 및 의아 표적을 탐지한다. 평시에 개꿀.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화생방 상황시 독소를 제거하는 보직이다. 희귀한 보직.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화생방 탐지 임무를 수행한다. 훈련만 아니면 괜찮은 수준.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대의 각종 보급품을 수령, 창고 저장, 불출에 대한 업무 수행한다. 처음에 고생하고 나중엔 편해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 유류를 관리한다. 상사를 잘둬야 편하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대의 조리를 담당한다. 힘들지만 휴가가 꽤 나온다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견인차량을 운전하여 인원과 화물을 수송하는 업무를 수행한다. 살짝 달달한편.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 차량을 맡느냐에 따라 군생활의 당도가 결정된다. 높으신분 차일수록 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수송계의 행정병. 그러나 부대 내 인식은 운전 못하는 운전병 취급이라 취급이 좋지 않을 확률이 크다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC를 활용 각종 문서를 문서규정에 맞도록 생산/보관하는 등 군 행정 업무 수행한다. 소문대로 달달한편.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교의식 및 종교행사에 대한 준비 및 의식행사를 보조한다. 이 보직을 받기보단, 겸직하는 경우가 많다. 휴가가 달달하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌병이 이름이 바뀐것이다. 나쁜짓만 안하면 볼일이 크게 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">군 사이버 테러 예방 및 범죄수사 임무를 수행한다. 전공을 살릴순 있으나 자리가 잘 없다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무계의 행정병. 의무병과는 대체로 달달하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무병. 주사를 놓거나 약을 지어주는 등의 업무를 수행한다. 행정병같은 일도 하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포를 쏘는 거리를 계산한다. 산을 많이탄다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">k-9 </t>
     </r>
     <r>
@@ -104,10 +680,20 @@
       </rPr>
       <t>자주곡사포병</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">105mm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>휴대용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -117,12 +703,16 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>견인포병</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">155mm </t>
+      <t>유도무기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -132,21 +722,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>견인포병</t>
-    </r>
-  </si>
-  <si>
-    <t>방공</t>
-  </si>
-  <si>
-    <t>발칸포운용병</t>
-  </si>
-  <si>
-    <t>오리콘포운용병</t>
-  </si>
-  <si>
-    <r>
-      <t>휴대용</t>
+      <t>운용</t>
     </r>
     <r>
       <rPr>
@@ -155,7 +731,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -165,336 +741,24 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>유도무기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>정비</t>
     </r>
-  </si>
-  <si>
-    <t>정보</t>
-  </si>
-  <si>
-    <t>정보병</t>
-  </si>
-  <si>
-    <t>암호병</t>
-  </si>
-  <si>
-    <t>공병</t>
-  </si>
-  <si>
-    <t>전투공병</t>
-  </si>
-  <si>
-    <t>시설공병</t>
-  </si>
-  <si>
-    <t>정보통신</t>
-  </si>
-  <si>
-    <r>
-      <t>통신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정비</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>레이더</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정비</t>
-    </r>
-  </si>
-  <si>
-    <t>화생방</t>
-  </si>
-  <si>
-    <r>
-      <t>화생방</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제독병</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>화생방</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탐측병</t>
-    </r>
-  </si>
-  <si>
-    <t>보급</t>
-  </si>
-  <si>
-    <t>일반물자보급병</t>
-  </si>
-  <si>
-    <t>유류관리병</t>
-  </si>
-  <si>
-    <t>조리병</t>
-  </si>
-  <si>
-    <t>수송</t>
-  </si>
-  <si>
-    <r>
-      <t>트레일러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운전병</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>운전병</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>차량</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple SD Gothic Neo"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정비병</t>
-    </r>
-  </si>
-  <si>
-    <t>인사</t>
-  </si>
-  <si>
-    <t>인사행정병</t>
-  </si>
-  <si>
-    <t>헌병</t>
-  </si>
-  <si>
-    <t>교도병</t>
-  </si>
-  <si>
-    <t>사이버수사병</t>
-  </si>
-  <si>
-    <t>의무</t>
-  </si>
-  <si>
-    <t>의무보급병</t>
-  </si>
-  <si>
-    <t>의무병</t>
-  </si>
-  <si>
-    <t>high</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운전병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반행정병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군사경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산병</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +852,47 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="NanumGothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -614,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,6 +961,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -975,7 +1292,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -990,13 +1307,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1009,7 +1326,9 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -1018,11 +1337,15 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1031,11 +1354,15 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1050,7 +1377,9 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
@@ -1059,11 +1388,15 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
@@ -1073,12 +1406,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
@@ -1087,11 +1422,15 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1100,11 +1439,15 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
@@ -1114,12 +1457,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1128,24 +1473,32 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="64">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1155,12 +1508,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1169,11 +1524,15 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1183,25 +1542,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="48">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="12"/>
       <c r="G16" s="7"/>
@@ -1211,12 +1576,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="12"/>
       <c r="G17" s="7"/>
@@ -1225,11 +1592,15 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1239,12 +1610,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="13"/>
       <c r="G19" s="7"/>
@@ -1253,11 +1626,15 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="13"/>
       <c r="G20" s="7"/>
@@ -1267,12 +1644,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="13"/>
       <c r="G21" s="7"/>
@@ -1281,9 +1660,14 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1291,9 +1675,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1302,10 +1691,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1313,9 +1705,14 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -1323,9 +1720,14 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1334,20 +1736,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="64">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1356,10 +1766,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -1367,9 +1780,14 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1378,21 +1796,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32">
-        <v>31</v>
-      </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/khusat_DB/job_db.xlsx
+++ b/khusat_DB/job_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA72441-8A92-6441-BA2B-508C09F4F022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4112494A-E452-3245-A015-2323E42EBE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>군종병</t>
   </si>
@@ -760,6 +760,104 @@
   <si>
     <t>계산병</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/15.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/16.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/28.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/daydream/Desktop/khusat_server/khusat_DB/30.jpg</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +1071,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1292,14 +1393,15 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="75.83203125" customWidth="1"/>
+    <col min="5" max="5" width="90.5" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1315,6 +1417,9 @@
       <c r="D1" t="s">
         <v>40</v>
       </c>
+      <c r="E1" s="18" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
@@ -1329,7 +1434,9 @@
       <c r="D2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
@@ -1346,7 +1453,9 @@
       <c r="D3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
@@ -1363,7 +1472,9 @@
       <c r="D4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
@@ -1380,7 +1491,9 @@
       <c r="D5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
     </row>
@@ -1397,7 +1510,9 @@
       <c r="D6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="7"/>
     </row>
@@ -1414,7 +1529,9 @@
       <c r="D7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="7"/>
     </row>
@@ -1431,7 +1548,9 @@
       <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
@@ -1448,7 +1567,9 @@
       <c r="D9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
     </row>
@@ -1465,7 +1586,9 @@
       <c r="D10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
@@ -1482,11 +1605,13 @@
       <c r="D11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="64">
+    <row r="12" spans="1:7" ht="48">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1499,7 +1624,9 @@
       <c r="D12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -1516,7 +1643,9 @@
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
@@ -1533,7 +1662,9 @@
       <c r="D14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
@@ -1550,11 +1681,13 @@
       <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="48">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1567,7 +1700,9 @@
       <c r="D16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="7"/>
     </row>
@@ -1584,7 +1719,9 @@
       <c r="D17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="7"/>
     </row>
@@ -1601,7 +1738,9 @@
       <c r="D18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
@@ -1618,7 +1757,9 @@
       <c r="D19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="7"/>
     </row>
@@ -1635,7 +1776,9 @@
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="7"/>
     </row>
@@ -1652,7 +1795,9 @@
       <c r="D21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
       <c r="F21" s="13"/>
       <c r="G21" s="7"/>
     </row>
@@ -1669,6 +1814,9 @@
       <c r="D22" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7">
@@ -1684,6 +1832,9 @@
       <c r="D23" s="16" t="s">
         <v>62</v>
       </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -1699,6 +1850,9 @@
       <c r="D24" s="16" t="s">
         <v>63</v>
       </c>
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -1714,6 +1868,9 @@
       <c r="D25" s="16" t="s">
         <v>64</v>
       </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:7">
@@ -1729,6 +1886,9 @@
       <c r="D26" s="16" t="s">
         <v>65</v>
       </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -1744,9 +1904,12 @@
       <c r="D27" s="16" t="s">
         <v>66</v>
       </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="64">
+    <row r="28" spans="1:7" ht="32">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1758,6 +1921,9 @@
       </c>
       <c r="D28" s="17" t="s">
         <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1774,6 +1940,9 @@
       <c r="D29" s="16" t="s">
         <v>68</v>
       </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -1789,6 +1958,9 @@
       <c r="D30" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -1803,6 +1975,9 @@
       </c>
       <c r="D31" s="16" t="s">
         <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
       </c>
       <c r="F31" s="1"/>
     </row>
